--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/WASHINGTON_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/WASHINGTON_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1357"/>
+  <dimension ref="A1:D1351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C32">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C40">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C62">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C88">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C90">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C99">
@@ -1795,7 +1795,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C108">
@@ -1963,13 +1963,13 @@
         <v>99</v>
       </c>
       <c r="D120">
-        <v>0.009235936188077247</v>
+        <v>0.009235936188077248</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C121">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2324,7 +2324,7 @@
         <v>10</v>
       </c>
       <c r="D147">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="148">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C149">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C151">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C156">
@@ -2525,12 +2525,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C163">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C166">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C171">
@@ -2654,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="D172">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="173">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C177">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C181">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C185">
@@ -2842,20 +2842,20 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C187">
         <v>10</v>
       </c>
       <c r="D187">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C188">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C198">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C206">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C209">
@@ -3200,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="D214">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="215">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C218">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C228">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C235">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C247">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C252">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C262">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C266">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C268">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C271">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C272">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C277">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C283">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C286">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C290">
@@ -4211,13 +4211,13 @@
         <v>10</v>
       </c>
       <c r="D291">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C293">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C299">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C305">
@@ -4406,7 +4406,7 @@
         <v>10</v>
       </c>
       <c r="D306">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="307">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C310">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C317">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C320">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C322">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C325">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C338">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C340">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C342">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C344">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C348">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C349">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C364">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C370">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C374">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C377">
@@ -5347,7 +5347,7 @@
         <v>10</v>
       </c>
       <c r="D378">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C380">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C385">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C387">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C388">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C391">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C392">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C398">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C402">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C404">
@@ -5717,14 +5717,14 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C407">
         <v>10</v>
       </c>
       <c r="D407">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="408">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C412">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C414">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C419">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C420">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C424">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C427">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C429">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C442">
@@ -6210,7 +6210,7 @@
         <v>10</v>
       </c>
       <c r="D444">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="445">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C449">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C456">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C457">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C458">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C461">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C467">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C468">
@@ -6535,7 +6535,7 @@
         <v>10</v>
       </c>
       <c r="D469">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="470">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C475">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C480">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C481">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C483">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C486">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C488">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C489">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C490">
@@ -6834,13 +6834,13 @@
         <v>10</v>
       </c>
       <c r="D492">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C493">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C494">
@@ -6886,7 +6886,7 @@
         <v>10</v>
       </c>
       <c r="D496">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="497">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C500">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C501">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C504">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C505">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C516">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C517">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C522">
@@ -7256,20 +7256,20 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C525">
         <v>10</v>
       </c>
       <c r="D525">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C526">
@@ -7302,7 +7302,7 @@
         <v>996</v>
       </c>
       <c r="D528">
-        <v>0.09291911558914077</v>
+        <v>0.09291911558914076</v>
       </c>
     </row>
     <row r="529">
@@ -7320,7 +7320,7 @@
         <v>10</v>
       </c>
       <c r="D529">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="530">
@@ -7586,7 +7586,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C550">
@@ -7612,7 +7612,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C552">
@@ -8457,7 +8457,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C617">
@@ -8787,7 +8787,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C642">
@@ -8904,14 +8904,14 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C651">
         <v>10</v>
       </c>
       <c r="D651">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="652">
@@ -8943,7 +8943,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C654">
@@ -8956,7 +8956,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C655">
@@ -9091,7 +9091,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C665">
@@ -9104,7 +9104,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C666">
@@ -9156,7 +9156,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C670">
@@ -9247,7 +9247,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C677">
@@ -9306,7 +9306,7 @@
         <v>10</v>
       </c>
       <c r="D681">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="682">
@@ -9408,7 +9408,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C689">
@@ -9460,7 +9460,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C693">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C696">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C700">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C703">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C706">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C708">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C713">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C715">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C716">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C720">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C721">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C724">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C726">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C729">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C730">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C732">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C749">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C756">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C761">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C766">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C786">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C791">
@@ -10889,7 +10889,7 @@
         <v>10</v>
       </c>
       <c r="D802">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="803">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C816">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C822">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C825">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C830">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C831">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C839">
@@ -11643,7 +11643,7 @@
         <v>107</v>
       </c>
       <c r="D860">
-        <v>0.009982274465901671</v>
+        <v>0.009982274465901672</v>
       </c>
     </row>
     <row r="861">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C882">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C883">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C884">
@@ -11961,7 +11961,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C885">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C886">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C887">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C888">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C889">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C890">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C891">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C892">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C893">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C894">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C897">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C899">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C914">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C916">
@@ -12551,7 +12551,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C930">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C931">
@@ -12662,13 +12662,13 @@
         <v>10</v>
       </c>
       <c r="D938">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C939">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C946">
@@ -12837,7 +12837,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C952">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C962">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C976">
@@ -13188,7 +13188,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C979">
@@ -13331,7 +13331,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C990">
@@ -13383,7 +13383,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C994">
@@ -13409,7 +13409,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C996">
@@ -13422,7 +13422,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C997">
@@ -13474,7 +13474,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1001">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1029">
@@ -13856,7 +13856,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1030">
@@ -13921,7 +13921,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1035">
@@ -13934,7 +13934,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1036">
@@ -13973,7 +13973,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1039">
@@ -14012,7 +14012,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1042">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1049">
@@ -14152,7 +14152,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1052">
@@ -14230,7 +14230,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1058">
@@ -14282,7 +14282,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1062">
@@ -14321,7 +14321,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1065">
@@ -14347,7 +14347,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1067">
@@ -14399,7 +14399,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1071">
@@ -14671,7 +14671,7 @@
         <v>10</v>
       </c>
       <c r="D1091">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="1092">
@@ -14825,7 +14825,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1103">
@@ -15012,7 +15012,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1117">
@@ -15251,7 +15251,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1135">
@@ -15438,7 +15438,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1149">
@@ -15451,7 +15451,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1150">
@@ -15529,7 +15529,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1156">
@@ -15677,7 +15677,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1167">
@@ -15703,7 +15703,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1169">
@@ -15781,7 +15781,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1175">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1189">
@@ -15976,7 +15976,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1190">
@@ -16171,7 +16171,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1205">
@@ -16184,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1206">
@@ -16223,7 +16223,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1209">
@@ -16236,7 +16236,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1210">
@@ -16340,7 +16340,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1218">
@@ -16405,7 +16405,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1223">
@@ -16444,7 +16444,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1226">
@@ -16457,7 +16457,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1227">
@@ -16496,7 +16496,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1230">
@@ -16522,7 +16522,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1232">
@@ -16581,13 +16581,13 @@
         <v>10</v>
       </c>
       <c r="D1236">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1237">
@@ -16639,7 +16639,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1241">
@@ -16678,7 +16678,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1244">
@@ -16763,13 +16763,13 @@
         <v>10</v>
       </c>
       <c r="D1250">
-        <v>0.0009329228472805299</v>
+        <v>0.00093292284728053</v>
       </c>
     </row>
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1251">
@@ -16795,7 +16795,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1253">
@@ -17133,7 +17133,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1279">
@@ -17598,7 +17598,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1314">
@@ -17715,7 +17715,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1323">
@@ -17754,7 +17754,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1326">
@@ -17806,7 +17806,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1330">
@@ -17819,7 +17819,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1331">
@@ -17832,7 +17832,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1332">
@@ -17936,7 +17936,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1340">
@@ -17949,7 +17949,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1341">
@@ -17962,7 +17962,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1342">
@@ -17988,7 +17988,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1344">
@@ -18087,41 +18087,6 @@
       </c>
       <c r="D1351">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
